--- a/data/trans_orig/Q5417-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5417-Provincia-trans_orig.xlsx
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6567</v>
+        <v>5696</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02979864508721598</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1674051916348316</v>
+        <v>0.145203797910413</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6193</v>
+        <v>5826</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01566718871139207</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08299057627666644</v>
+        <v>0.0780776467028747</v>
       </c>
     </row>
     <row r="7">
@@ -914,7 +914,7 @@
         <v>38062</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32664</v>
+        <v>33535</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>39231</v>
@@ -923,7 +923,7 @@
         <v>0.970201354912784</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8325948083651667</v>
+        <v>0.854796202089587</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -935,7 +935,7 @@
         <v>73448</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>68424</v>
+        <v>68791</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>74617</v>
@@ -944,7 +944,7 @@
         <v>0.9843328112886079</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9170094237233378</v>
+        <v>0.9219223532971297</v>
       </c>
       <c r="W7" s="6" t="n">
         <v>1</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5564</v>
+        <v>6197</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01121295301972382</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05684962181450891</v>
+        <v>0.06331258311653921</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>4588</v>
+        <v>6397</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.006670348085876041</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02788699280345204</v>
+        <v>0.03887860418512573</v>
       </c>
     </row>
     <row r="10">
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7387</v>
+        <v>6911</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02167032546146457</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07547818709373579</v>
+        <v>0.07061344132144004</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7607</v>
+        <v>7459</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01289121730091323</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04623649164879333</v>
+        <v>0.04533627304440645</v>
       </c>
     </row>
     <row r="11">
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4656</v>
+        <v>5050</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0144924441576728</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06985945948194651</v>
+        <v>0.07575879239869318</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1186,19 +1186,19 @@
         <v>2919</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7338</v>
+        <v>7627</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02982521501121504</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.009070678928827377</v>
+        <v>0.009080403161764892</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07497508736445917</v>
+        <v>0.07792182078002019</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -1207,19 +1207,19 @@
         <v>3885</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1093</v>
+        <v>973</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>9347</v>
+        <v>9235</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02361358455076975</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.006646104946214428</v>
+        <v>0.005911885079124511</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05681267332645433</v>
+        <v>0.05613017704629723</v>
       </c>
     </row>
     <row r="12">
@@ -1236,7 +1236,7 @@
         <v>65688</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>61998</v>
+        <v>61604</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>66654</v>
@@ -1245,7 +1245,7 @@
         <v>0.9855075558423272</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9301405405180533</v>
+        <v>0.9242412076013082</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>1</v>
@@ -1257,19 +1257,19 @@
         <v>91737</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>85352</v>
+        <v>85536</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>95008</v>
+        <v>95020</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9372915065075966</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8720477532310047</v>
+        <v>0.873935310486879</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9707053463195334</v>
+        <v>0.9708275505351929</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>154</v>
@@ -1278,19 +1278,19 @@
         <v>157425</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>150834</v>
+        <v>150591</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>161482</v>
+        <v>161423</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.956824850062441</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9167641187666338</v>
+        <v>0.9152873295281316</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9814810867853475</v>
+        <v>0.981120156154612</v>
       </c>
     </row>
     <row r="13">
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>3.517171966334041e-06</v>
+        <v>3.956066544932365e-06</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>2.566705934061234e-06</v>
+        <v>2.158129722543071e-06</v>
       </c>
     </row>
     <row r="15">
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6378</v>
+        <v>8235</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02498440295197348</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.07636555818647935</v>
+        <v>0.09860293207778625</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>7387</v>
+        <v>7880</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01551921322738497</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05493995523444768</v>
+        <v>0.05860510813063403</v>
       </c>
     </row>
     <row r="16">
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7791</v>
+        <v>6827</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02698992673280267</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09328128716176204</v>
+        <v>0.0817391431057943</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7844</v>
+        <v>6818</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01676495647156447</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05833293934119401</v>
+        <v>0.05070779886928112</v>
       </c>
     </row>
     <row r="17">
@@ -1584,19 +1584,19 @@
         <v>79180</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>73668</v>
+        <v>73601</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>82382</v>
+        <v>82391</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9480250057552944</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8820268425723683</v>
+        <v>0.8812248360807085</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9863614804395906</v>
+        <v>0.9864702340753561</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>131</v>
@@ -1605,19 +1605,19 @@
         <v>130120</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>124160</v>
+        <v>124005</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>133330</v>
+        <v>133320</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.967715417505625</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9233892079876598</v>
+        <v>0.9222345285368948</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9915861183556838</v>
+        <v>0.9915129777097349</v>
       </c>
     </row>
     <row r="18">
@@ -1759,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4532</v>
+        <v>4777</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01506936303083897</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08222656094675734</v>
+        <v>0.08666800521116751</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>3409</v>
+        <v>3366</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.006417520832617277</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02633408361886744</v>
+        <v>0.02600866008745214</v>
       </c>
     </row>
     <row r="21">
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4201</v>
+        <v>4186</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01506936303083897</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07620864584172134</v>
+        <v>0.07594117356520579</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4402</v>
+        <v>5490</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01456889842396426</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05923826467442908</v>
+        <v>0.07387163340997881</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>6769</v>
+        <v>7096</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01478202900115146</v>
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05229559814294951</v>
+        <v>0.05482412617302587</v>
       </c>
     </row>
     <row r="22">
@@ -1890,7 +1890,7 @@
         <v>53461</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>49304</v>
+        <v>50015</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>55122</v>
@@ -1899,7 +1899,7 @@
         <v>0.969861273938322</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8944597122088604</v>
+        <v>0.9073585783407273</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -1911,7 +1911,7 @@
         <v>73230</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>69911</v>
+        <v>68823</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>74313</v>
@@ -1920,7 +1920,7 @@
         <v>0.9854311015760358</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9407617353255709</v>
+        <v>0.9261283665900213</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -1932,7 +1932,7 @@
         <v>126692</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>121967</v>
+        <v>121543</v>
       </c>
       <c r="T22" s="5" t="n">
         <v>128612</v>
@@ -1941,10 +1941,10 @@
         <v>0.9788004501662313</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9422964412521684</v>
+        <v>0.9390230820356754</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9936338522769901</v>
+        <v>0.9936351023703928</v>
       </c>
     </row>
     <row r="23">
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5282</v>
+        <v>4626</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02766554269098331</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1280623822853061</v>
+        <v>0.1121582546696013</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1</v>
@@ -2073,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>5772</v>
+        <v>5264</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01616434424584546</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08175877413052045</v>
+        <v>0.07456716074730546</v>
       </c>
     </row>
     <row r="25">
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4081</v>
+        <v>4557</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02957935006790525</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1390717536214151</v>
+        <v>0.1552940388705714</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -2136,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4997</v>
+        <v>4483</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01229681191542491</v>
@@ -2145,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07077992484852511</v>
+        <v>0.06350330421188516</v>
       </c>
     </row>
     <row r="26">
@@ -2162,19 +2162,19 @@
         <v>2545</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>804</v>
+        <v>768</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6722</v>
+        <v>6587</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.08672909000882184</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02741251405440386</v>
+        <v>0.02615589445601886</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2290642707370756</v>
+        <v>0.2244615159636477</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -2183,19 +2183,19 @@
         <v>3205</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0</v>
+        <v>899</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8144</v>
+        <v>7929</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07771025707853205</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0</v>
+        <v>0.02179034660309171</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1974380371631383</v>
+        <v>0.1922332039123466</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -2204,19 +2204,19 @@
         <v>5750</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2028</v>
+        <v>2407</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>11496</v>
+        <v>11924</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0814595920702007</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0287307906029392</v>
+        <v>0.03409409533281892</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1628520399030368</v>
+        <v>0.1689112204582464</v>
       </c>
     </row>
     <row r="27">
@@ -2233,19 +2233,19 @@
         <v>25934</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>21741</v>
+        <v>21935</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>28482</v>
+        <v>28513</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.8836915599232729</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7408257624655993</v>
+        <v>0.7474222515748211</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9705091288019114</v>
+        <v>0.9715897660973787</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>35</v>
@@ -2254,19 +2254,19 @@
         <v>36900</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>31578</v>
+        <v>30696</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>40112</v>
+        <v>40098</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.8946242002304846</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.7656095551427021</v>
+        <v>0.7442281645137536</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9725081034750598</v>
+        <v>0.9721703309257469</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>65</v>
@@ -2275,19 +2275,19 @@
         <v>62833</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>55886</v>
+        <v>56097</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>67040</v>
+        <v>66830</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.890079251768529</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.7916640490774227</v>
+        <v>0.7946560248344431</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9496711298732318</v>
+        <v>0.946696182752512</v>
       </c>
     </row>
     <row r="28">
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>5814</v>
+        <v>6500</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04009136182717406</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1231987134157519</v>
+        <v>0.1377331953889382</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>4</v>
@@ -2494,19 +2494,19 @@
         <v>4640</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1229</v>
+        <v>1150</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>11335</v>
+        <v>10438</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0659947604080164</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01747771212132256</v>
+        <v>0.01635265029214225</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1612149938108962</v>
+        <v>0.1484637028294703</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>6</v>
@@ -2515,19 +2515,19 @@
         <v>6532</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2112</v>
+        <v>2859</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>13274</v>
+        <v>13053</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.05559057192843989</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01796957203377565</v>
+        <v>0.0243305727883189</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1129678124069754</v>
+        <v>0.1110811857727414</v>
       </c>
     </row>
     <row r="32">
@@ -2544,7 +2544,7 @@
         <v>45304</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>41382</v>
+        <v>40696</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>47196</v>
@@ -2553,7 +2553,7 @@
         <v>0.9599086381728259</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8768012865842482</v>
+        <v>0.8622668046110618</v>
       </c>
       <c r="I32" s="6" t="n">
         <v>1</v>
@@ -2565,19 +2565,19 @@
         <v>65669</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>58974</v>
+        <v>59871</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>69080</v>
+        <v>69159</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9340052395919836</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8387850061891036</v>
+        <v>0.8515362971705294</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9825222878786762</v>
+        <v>0.9836473497078577</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>110</v>
@@ -2586,19 +2586,19 @@
         <v>110974</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>104232</v>
+        <v>104453</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>115394</v>
+        <v>114647</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9444094280715601</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8870321875930248</v>
+        <v>0.8889188142272585</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9820304279662243</v>
+        <v>0.975669427211681</v>
       </c>
     </row>
     <row r="33">
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>4647</v>
+        <v>4960</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.007914843998951463</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04387212315636137</v>
+        <v>0.04682816184850948</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>5277</v>
+        <v>4853</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.007654550601275437</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04505617949686502</v>
+        <v>0.04143806713259013</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>6241</v>
+        <v>5306</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.007778166157126703</v>
@@ -2744,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02798186650547978</v>
+        <v>0.02378670820265955</v>
       </c>
     </row>
     <row r="35">
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>5980</v>
+        <v>5489</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.009597154075753117</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.05105550314496408</v>
+        <v>0.04686843429138454</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1</v>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>4550</v>
+        <v>6373</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.005039383704869306</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02039826092329002</v>
+        <v>0.02857035019509258</v>
       </c>
     </row>
     <row r="36">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>6177</v>
+        <v>6938</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01650052454703591</v>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05273709186467771</v>
+        <v>0.05923735385777644</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2</v>
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>6472</v>
+        <v>6818</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.008664284627274104</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02901762770332457</v>
+        <v>0.03056938299689407</v>
       </c>
     </row>
     <row r="37">
@@ -2887,7 +2887,7 @@
         <v>105090</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>101281</v>
+        <v>100968</v>
       </c>
       <c r="F37" s="5" t="n">
         <v>105928</v>
@@ -2896,7 +2896,7 @@
         <v>0.9920851560010485</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.956127876843639</v>
+        <v>0.9531718381514904</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>1</v>
@@ -2908,19 +2908,19 @@
         <v>113168</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>107676</v>
+        <v>107421</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>116087</v>
+        <v>115981</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9662477707759355</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9193609936239684</v>
+        <v>0.9171756290473901</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9911712773850679</v>
+        <v>0.9902635146427615</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>220</v>
@@ -2929,19 +2929,19 @@
         <v>218257</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>212459</v>
+        <v>212234</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>221244</v>
+        <v>221237</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9785181655107299</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9525220613004932</v>
+        <v>0.9515146220213021</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9919088280631722</v>
+        <v>0.9918763938467157</v>
       </c>
     </row>
     <row r="38">
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>6122</v>
+        <v>6041</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.007840902575629707</v>
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.03995128358615643</v>
+        <v>0.03942523182256259</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1</v>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>5965</v>
+        <v>5990</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.004531658543604507</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.02249926013483619</v>
+        <v>0.02259217177448739</v>
       </c>
     </row>
     <row r="40">
@@ -3143,19 +3143,19 @@
         <v>3125</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>8338</v>
+        <v>7407</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02792798860381821</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.008934563862188407</v>
+        <v>0.008967757200416678</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.07451962259037558</v>
+        <v>0.06619538169687664</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>6</v>
@@ -3164,19 +3164,19 @@
         <v>6912</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>2504</v>
+        <v>3153</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>14583</v>
+        <v>13982</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.0451090961300778</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.0163392803047297</v>
+        <v>0.02057766018346763</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.09517601283162076</v>
+        <v>0.09124940812023399</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>9</v>
@@ -3185,19 +3185,19 @@
         <v>10037</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>4750</v>
+        <v>5241</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>17909</v>
+        <v>18711</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.03785782920048053</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01791829284161031</v>
+        <v>0.01976894692691807</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.06755040592086919</v>
+        <v>0.07057728511719613</v>
       </c>
     </row>
     <row r="42">
@@ -3214,19 +3214,19 @@
         <v>108768</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>103555</v>
+        <v>104486</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>110893</v>
+        <v>110890</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.9720720113961818</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.9254803774096244</v>
+        <v>0.9338046183031232</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9910654361378116</v>
+        <v>0.9910322427995834</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>137</v>
@@ -3235,19 +3235,19 @@
         <v>145112</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>137786</v>
+        <v>137278</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>149874</v>
+        <v>149667</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.9470500012942925</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.8992408294345902</v>
+        <v>0.8959234727551285</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9781275899171279</v>
+        <v>0.976777725277673</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>250</v>
@@ -3256,19 +3256,19 @@
         <v>253880</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>245838</v>
+        <v>245322</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>259565</v>
+        <v>259341</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.957610512255915</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9272794835878652</v>
+        <v>0.9253324214281784</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9790528538373895</v>
+        <v>0.9782098801158917</v>
       </c>
     </row>
     <row r="43">
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>4695</v>
+        <v>4237</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.001668579154169476</v>
@@ -3372,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.009344603514075659</v>
+        <v>0.008432470631009444</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>5</v>
@@ -3381,19 +3381,19 @@
         <v>4337</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1129</v>
+        <v>1141</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>9957</v>
+        <v>10075</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.006407026651411883</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.001668622853569762</v>
+        <v>0.001685823224902118</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01471044688942647</v>
+        <v>0.01488490825659916</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>6</v>
@@ -3402,19 +3402,19 @@
         <v>5175</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>11371</v>
+        <v>11760</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.004388123380015286</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.001689089994425212</v>
+        <v>0.001692390995744189</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.009642326079977693</v>
+        <v>0.009971851427789231</v>
       </c>
     </row>
     <row r="45">
@@ -3434,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>5877</v>
+        <v>5905</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.003380765256974488</v>
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.01169624946007014</v>
+        <v>0.01175291779758217</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>5</v>
@@ -3452,19 +3452,19 @@
         <v>5332</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>2032</v>
+        <v>2023</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>12684</v>
+        <v>11392</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.007877377073954089</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.003001841322855569</v>
+        <v>0.002989090486654244</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.0187398506545706</v>
+        <v>0.01683048000416131</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>7</v>
@@ -3473,19 +3473,19 @@
         <v>7030</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>2445</v>
+        <v>2934</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>13324</v>
+        <v>13642</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.005961512370845342</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.002073052520178705</v>
+        <v>0.00248796111468254</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.01129834850322527</v>
+        <v>0.01156779354078522</v>
       </c>
     </row>
     <row r="46">
@@ -3502,19 +3502,19 @@
         <v>9359</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>4506</v>
+        <v>4855</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>16799</v>
+        <v>16290</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01862611624121252</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.008968418596493442</v>
+        <v>0.009662428793049242</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.03343407039251179</v>
+        <v>0.03242030084849307</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>22</v>
@@ -3523,19 +3523,19 @@
         <v>24115</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>15575</v>
+        <v>16660</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>36953</v>
+        <v>37971</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.03562829941696736</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.02301165814437675</v>
+        <v>0.0246138834056394</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.05459691560955719</v>
+        <v>0.05610035005067113</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>32</v>
@@ -3544,19 +3544,19 @@
         <v>33474</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>22832</v>
+        <v>22421</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>46121</v>
+        <v>45874</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.02838420454108409</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01936043616511618</v>
+        <v>0.01901213776249104</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.03910836202986209</v>
+        <v>0.038898977451055</v>
       </c>
     </row>
     <row r="47">
@@ -3573,19 +3573,19 @@
         <v>490570</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>481229</v>
+        <v>482300</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>495686</v>
+        <v>495536</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.9763245393476435</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.9577343983718604</v>
+        <v>0.9598663856128822</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.9865065296879423</v>
+        <v>0.9862081256911133</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>629</v>
@@ -3594,19 +3594,19 @@
         <v>643059</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>629130</v>
+        <v>630344</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>652924</v>
+        <v>652980</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.9500872968576667</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.9295083745422777</v>
+        <v>0.9313019562616337</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.9646623070047892</v>
+        <v>0.9647453434557319</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1139</v>
@@ -3615,19 +3615,19 @@
         <v>1133629</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1117859</v>
+        <v>1118670</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1146286</v>
+        <v>1145320</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.9612661597080553</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.9478936263779182</v>
+        <v>0.9485816744486584</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.971999235112153</v>
+        <v>0.9711793290025968</v>
       </c>
     </row>
     <row r="48">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6625</v>
+        <v>6706</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04446678996133766</v>
@@ -4035,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1354937012593181</v>
+        <v>0.1371474937271119</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -4047,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7854</v>
+        <v>7399</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02333423223944369</v>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08429427079893423</v>
+        <v>0.0794059884501466</v>
       </c>
     </row>
     <row r="6">
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4967</v>
+        <v>4916</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02225763574311793</v>
@@ -4085,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1121647147678203</v>
+        <v>0.1110177278854294</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -4097,16 +4097,16 @@
         <v>1089</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8928</v>
+        <v>9488</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06836421186026001</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02227854840990916</v>
+        <v>0.02227125104247622</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1825918013786221</v>
+        <v>0.1940608306875383</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -4115,19 +4115,19 @@
         <v>4328</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1144</v>
+        <v>1095</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10138</v>
+        <v>9535</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04645235624843001</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01227615762395274</v>
+        <v>0.01175489645122273</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1088068272437153</v>
+        <v>0.1023313991454885</v>
       </c>
     </row>
     <row r="7">
@@ -4144,7 +4144,7 @@
         <v>43295</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39314</v>
+        <v>39365</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>44281</v>
@@ -4153,7 +4153,7 @@
         <v>0.9777423642568821</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8878352852321798</v>
+        <v>0.8889822721145708</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -4165,19 +4165,19 @@
         <v>43377</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36815</v>
+        <v>36896</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>46726</v>
+        <v>46737</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8871689981784023</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7529482296426674</v>
+        <v>0.7546151975083583</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9556541746156305</v>
+        <v>0.9558755490317898</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>81</v>
@@ -4186,19 +4186,19 @@
         <v>86673</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>80003</v>
+        <v>81107</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>90858</v>
+        <v>90946</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9302134115121263</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8586363681584823</v>
+        <v>0.8704821445744725</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9751348516020715</v>
+        <v>0.9760783248915044</v>
       </c>
     </row>
     <row r="8">
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7903</v>
+        <v>7748</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0268959715889703</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09978710606800741</v>
+        <v>0.09782543319586573</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8382</v>
+        <v>9055</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02387006741431186</v>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08210578164306295</v>
+        <v>0.08869183274897992</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -4332,19 +4332,19 @@
         <v>4567</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1108</v>
+        <v>1096</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>10626</v>
+        <v>10490</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02519199450958717</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.006111322670151108</v>
+        <v>0.006046231672379211</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05860865453293288</v>
+        <v>0.05786103776397584</v>
       </c>
     </row>
     <row r="10">
@@ -4377,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10166</v>
+        <v>11851</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0311390957501339</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09957916796665071</v>
+        <v>0.1160782054407105</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -4398,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12291</v>
+        <v>10300</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01753535550640307</v>
@@ -4407,7 +4407,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06779307241682068</v>
+        <v>0.05681079781614094</v>
       </c>
     </row>
     <row r="11">
@@ -4437,19 +4437,19 @@
         <v>3283</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9195</v>
+        <v>10181</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03216120806511135</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01045736954084544</v>
+        <v>0.01042184271506673</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09006086183918927</v>
+        <v>0.09972227776351245</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -4458,19 +4458,19 @@
         <v>3283</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1044</v>
+        <v>1063</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>8687</v>
+        <v>9816</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01811093749999789</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.005758351601009085</v>
+        <v>0.005861254392655076</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04791853495978324</v>
+        <v>0.05414527262789119</v>
       </c>
     </row>
     <row r="12">
@@ -4487,7 +4487,7 @@
         <v>77073</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>71300</v>
+        <v>71455</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>79203</v>
@@ -4496,7 +4496,7 @@
         <v>0.9731040284110297</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9002128939319963</v>
+        <v>0.9021745668041343</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>1</v>
@@ -4508,19 +4508,19 @@
         <v>93194</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>85253</v>
+        <v>83728</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>98579</v>
+        <v>97753</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9128296287704429</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8350549546035664</v>
+        <v>0.8201192664664044</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9655785578094427</v>
+        <v>0.9574870185421396</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>153</v>
@@ -4529,19 +4529,19 @@
         <v>170266</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>160494</v>
+        <v>162406</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>175736</v>
+        <v>175912</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9391617124840118</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8852590419128773</v>
+        <v>0.8958066747654591</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9693310032079597</v>
+        <v>0.9703029700825843</v>
       </c>
     </row>
     <row r="13">
@@ -4636,16 +4636,16 @@
         <v>955</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7283</v>
+        <v>8193</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05359619057167883</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01713217470897211</v>
+        <v>0.01712644519571692</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1306511504129451</v>
+        <v>0.1469890270518139</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -4654,19 +4654,19 @@
         <v>4395</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11072</v>
+        <v>10687</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05495585700127421</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01378524860793237</v>
+        <v>0.01383832418804925</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1384535026943533</v>
+        <v>0.1336425511788033</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -4675,19 +4675,19 @@
         <v>7382</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3089</v>
+        <v>3140</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>14374</v>
+        <v>13855</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05439738157364787</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02276222594918205</v>
+        <v>0.02313751891842142</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1059189328562246</v>
+        <v>0.1020944155562912</v>
       </c>
     </row>
     <row r="15">
@@ -4707,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4310</v>
+        <v>5118</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01842757923918135</v>
@@ -4716,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07732505467354708</v>
+        <v>0.09181869356074744</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7031</v>
+        <v>6646</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02703915876583822</v>
@@ -4737,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.08791891942269299</v>
+        <v>0.08310912630377172</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>3</v>
@@ -4746,19 +4746,19 @@
         <v>3189</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1031</v>
+        <v>1009</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>8734</v>
+        <v>8509</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02350200034668161</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.00759520151844702</v>
+        <v>0.007437256605874505</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.064356907598143</v>
+        <v>0.06269775181100418</v>
       </c>
     </row>
     <row r="16">
@@ -4778,7 +4778,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5142</v>
+        <v>5138</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01881004458334149</v>
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09225483058644603</v>
+        <v>0.09218064829994116</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -4796,19 +4796,19 @@
         <v>3235</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1037</v>
+        <v>1056</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7687</v>
+        <v>8641</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04045397513321219</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01296511322870278</v>
+        <v>0.01320854216984783</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09612160674807262</v>
+        <v>0.1080616457064749</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -4817,19 +4817,19 @@
         <v>4284</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1067</v>
+        <v>1094</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10716</v>
+        <v>9932</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03156385097757579</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007865937958290714</v>
+        <v>0.008058005199762592</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07895959120770277</v>
+        <v>0.07318794477815682</v>
       </c>
     </row>
     <row r="17">
@@ -4846,19 +4846,19 @@
         <v>50679</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>45221</v>
+        <v>45123</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>53803</v>
+        <v>53807</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9091661856057983</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8112527774870421</v>
+        <v>0.8094933703478503</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9652146450610825</v>
+        <v>0.9652818210288778</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>66</v>
@@ -4867,19 +4867,19 @@
         <v>70176</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>62688</v>
+        <v>62808</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>75563</v>
+        <v>75411</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8775510090996754</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7839118429211764</v>
+        <v>0.7854109539789046</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9449114045800645</v>
+        <v>0.9430186368931859</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>114</v>
@@ -4888,19 +4888,19 @@
         <v>120855</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>111676</v>
+        <v>111879</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>127146</v>
+        <v>127025</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8905367671020947</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.822904607175777</v>
+        <v>0.824395138562906</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.936896458037768</v>
+        <v>0.9360035196385185</v>
       </c>
     </row>
     <row r="18">
@@ -5055,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5803</v>
+        <v>6153</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01370077907865014</v>
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0678163800468481</v>
+        <v>0.07190261904074341</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -5076,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5967</v>
+        <v>5864</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.007837026217494681</v>
@@ -5085,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03988570946236358</v>
+        <v>0.03919579854431374</v>
       </c>
     </row>
     <row r="21">
@@ -5102,19 +5102,19 @@
         <v>3169</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8563</v>
+        <v>8533</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04949170338801474</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01485314967449291</v>
+        <v>0.01481691941959022</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1337423818277055</v>
+        <v>0.1332711338757754</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>7448</v>
+        <v>7047</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02512021925206449</v>
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0870364418930043</v>
+        <v>0.08235344258871129</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
@@ -5144,19 +5144,19 @@
         <v>5318</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1965</v>
+        <v>2046</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>11670</v>
+        <v>12118</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03555089323143524</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01313282406365622</v>
+        <v>0.01367430837467607</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07800926409380493</v>
+        <v>0.08100242045445655</v>
       </c>
     </row>
     <row r="22">
@@ -5173,19 +5173,19 @@
         <v>60859</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>55465</v>
+        <v>55495</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>63077</v>
+        <v>63079</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9505082966119852</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8662576181722932</v>
+        <v>0.8667288661242246</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9851468503255071</v>
+        <v>0.9851830805804098</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>79</v>
@@ -5194,19 +5194,19 @@
         <v>82252</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>76762</v>
+        <v>76480</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>84569</v>
+        <v>84556</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9611790016692854</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8970291069304582</v>
+        <v>0.8937270165006228</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9882521914823128</v>
+        <v>0.9880985780961373</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>134</v>
@@ -5215,19 +5215,19 @@
         <v>143111</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>136177</v>
+        <v>135423</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>147301</v>
+        <v>146595</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9566120805510701</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9102614606885996</v>
+        <v>0.905225043575969</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9846164265327609</v>
+        <v>0.9798978827575339</v>
       </c>
     </row>
     <row r="23">
@@ -5382,7 +5382,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4090</v>
+        <v>4853</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01996871632286354</v>
@@ -5391,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08203474375511503</v>
+        <v>0.09733800320290181</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1</v>
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5535</v>
+        <v>4995</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01222011751150578</v>
@@ -5412,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06794313803839941</v>
+        <v>0.0613106966254473</v>
       </c>
     </row>
     <row r="26">
@@ -5432,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7079</v>
+        <v>6990</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.07140175721307995</v>
@@ -5441,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2239385090089478</v>
+        <v>0.2211328122285289</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -5450,19 +5450,19 @@
         <v>4084</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>989</v>
+        <v>1096</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9162</v>
+        <v>9313</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08192569318546956</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01984013677744014</v>
+        <v>0.02198810205323386</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1837637650623279</v>
+        <v>0.1868009996217072</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -5471,19 +5471,19 @@
         <v>6342</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2184</v>
+        <v>2190</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>13062</v>
+        <v>13217</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07784201767784087</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02680851744100033</v>
+        <v>0.02688472524561928</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1603395633630712</v>
+        <v>0.1622425248355633</v>
       </c>
     </row>
     <row r="27">
@@ -5500,7 +5500,7 @@
         <v>29355</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>24533</v>
+        <v>24622</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>31612</v>
@@ -5509,7 +5509,7 @@
         <v>0.92859824278692</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7760614909910524</v>
+        <v>0.778867187771471</v>
       </c>
       <c r="I27" s="6" t="n">
         <v>1</v>
@@ -5521,19 +5521,19 @@
         <v>44775</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>39461</v>
+        <v>39452</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>47927</v>
+        <v>47874</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.8981055904916669</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.7915168409871278</v>
+        <v>0.791334215936198</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9613280073958824</v>
+        <v>0.9602648927096431</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>69</v>
@@ -5542,19 +5542,19 @@
         <v>74130</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>67349</v>
+        <v>67107</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>78358</v>
+        <v>78418</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9099378648106533</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8267009091503368</v>
+        <v>0.8237301875428614</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.961838014633322</v>
+        <v>0.9625685059262331</v>
       </c>
     </row>
     <row r="28">
@@ -5662,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6544</v>
+        <v>7173</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03070522176428342</v>
@@ -5671,7 +5671,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09319803911945988</v>
+        <v>0.1021683915504309</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2</v>
@@ -5683,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6966</v>
+        <v>6513</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0176756952889472</v>
@@ -5692,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05711676643949985</v>
+        <v>0.05340072472801462</v>
       </c>
     </row>
     <row r="30">
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5331</v>
+        <v>5287</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02041989866142973</v>
@@ -5721,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1029967102865826</v>
+        <v>0.1021620168367442</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2</v>
@@ -5733,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6516</v>
+        <v>7619</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03114665596964007</v>
@@ -5742,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.09280278914173418</v>
+        <v>0.1085098715919632</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3</v>
@@ -5751,19 +5751,19 @@
         <v>3244</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>8736</v>
+        <v>8612</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02659483838581763</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.008630787551278093</v>
+        <v>0.0086472025208638</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07162778456468342</v>
+        <v>0.07060791027391582</v>
       </c>
     </row>
     <row r="31">
@@ -5783,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>5351</v>
+        <v>4488</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02077201012331892</v>
@@ -5792,7 +5792,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1033801202189283</v>
+        <v>0.0867051582336774</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>5</v>
@@ -5801,19 +5801,19 @@
         <v>5263</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2041</v>
+        <v>2043</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>10623</v>
+        <v>10533</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0749651603033229</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0290669314331385</v>
+        <v>0.02909849878771134</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1512975761569477</v>
+        <v>0.1500144020074406</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>6</v>
@@ -5822,19 +5822,19 @@
         <v>6339</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2144</v>
+        <v>2174</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>12726</v>
+        <v>13756</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.05196871069377838</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01757441349879039</v>
+        <v>0.01782199331380073</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.104336237061055</v>
+        <v>0.1127802191857678</v>
       </c>
     </row>
     <row r="32">
@@ -5851,7 +5851,7 @@
         <v>49624</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>44304</v>
+        <v>44435</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>51756</v>
@@ -5860,7 +5860,7 @@
         <v>0.9588080912152513</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.856023147735169</v>
+        <v>0.8585492191087492</v>
       </c>
       <c r="I32" s="6" t="n">
         <v>1</v>
@@ -5872,19 +5872,19 @@
         <v>60606</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>54255</v>
+        <v>53498</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>65051</v>
+        <v>65002</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8631829619627536</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7727288277792628</v>
+        <v>0.7619463665916066</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9264998634015948</v>
+        <v>0.9257968216280433</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>108</v>
@@ -5893,19 +5893,19 @@
         <v>110230</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>101727</v>
+        <v>102659</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>115587</v>
+        <v>115568</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9037607556314567</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8340438061581198</v>
+        <v>0.8416903593995404</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9476870395914657</v>
+        <v>0.9475252049310343</v>
       </c>
     </row>
     <row r="33">
@@ -6000,7 +6000,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>5224</v>
+        <v>5296</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.009194798922813009</v>
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04653621228136609</v>
+        <v>0.04717367159284072</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>7715</v>
+        <v>5375</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.00761006836612052</v>
@@ -6030,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.05434515644798996</v>
+        <v>0.03785929956920334</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2</v>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>7522</v>
+        <v>8282</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.008309867801012281</v>
@@ -6051,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02958877118905819</v>
+        <v>0.03257631460103282</v>
       </c>
     </row>
     <row r="35">
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>10927</v>
+        <v>10096</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02020915612421908</v>
@@ -6080,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.09733801964086039</v>
+        <v>0.08992917465056419</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>0</v>
@@ -6105,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>11313</v>
+        <v>11178</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0089241391703108</v>
@@ -6114,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04450154137928784</v>
+        <v>0.0439692132133247</v>
       </c>
     </row>
     <row r="36">
@@ -6131,19 +6131,19 @@
         <v>2980</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>929</v>
+        <v>953</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>8093</v>
+        <v>8727</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02654074214911865</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.008275849187013738</v>
+        <v>0.008486841523450544</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.07208905340817678</v>
+        <v>0.07773477893244006</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>8</v>
@@ -6152,19 +6152,19 @@
         <v>8783</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>4038</v>
+        <v>4100</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>17290</v>
+        <v>16516</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.06186745319862101</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02844736475779094</v>
+        <v>0.02888189912659698</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1217962154923651</v>
+        <v>0.1163392730361291</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>11</v>
@@ -6173,19 +6173,19 @@
         <v>11762</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>6200</v>
+        <v>5602</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>21292</v>
+        <v>19788</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.04626756946783522</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02438714803175963</v>
+        <v>0.02203704994333137</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.08375334868783997</v>
+        <v>0.07783685069511377</v>
       </c>
     </row>
     <row r="37">
@@ -6202,19 +6202,19 @@
         <v>105982</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>97880</v>
+        <v>96986</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>110221</v>
+        <v>109983</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9440553028038493</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.8718813580733624</v>
+        <v>0.863922084253765</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9818069887002054</v>
+        <v>0.979693986168547</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>120</v>
@@ -6223,19 +6223,19 @@
         <v>132099</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>123225</v>
+        <v>124581</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>137081</v>
+        <v>136956</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9305224784352585</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.868014070446254</v>
+        <v>0.8775651515996251</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9656168345829699</v>
+        <v>0.9647356331310475</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>215</v>
@@ -6244,19 +6244,19 @@
         <v>238082</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>228149</v>
+        <v>227604</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>245117</v>
+        <v>245153</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9364984235608417</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.8974262153908124</v>
+        <v>0.8952813435643538</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.964168763193827</v>
+        <v>0.9643100057312081</v>
       </c>
     </row>
     <row r="38">
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>5273</v>
+        <v>6563</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.009096849647954645</v>
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.04366814854087196</v>
+        <v>0.05435431737370543</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>4</v>
@@ -6369,19 +6369,19 @@
         <v>4478</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>1198</v>
+        <v>1111</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>10516</v>
+        <v>11110</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.0272361002610876</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.007284262843156925</v>
+        <v>0.006754263389941453</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.06395853553520564</v>
+        <v>0.0675702247373723</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>5</v>
@@ -6390,19 +6390,19 @@
         <v>5577</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>2165</v>
+        <v>2119</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>12285</v>
+        <v>12143</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.01955519771549167</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.007592878209114477</v>
+        <v>0.007430305310383528</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.04307836448828696</v>
+        <v>0.0425800996392986</v>
       </c>
     </row>
     <row r="40">
@@ -6435,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>7594</v>
+        <v>7534</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01309520610562873</v>
@@ -6444,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.04618556324610842</v>
+        <v>0.04582424696088253</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2</v>
@@ -6456,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>7674</v>
+        <v>6961</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.007550158845572453</v>
@@ -6465,7 +6465,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02690921187902071</v>
+        <v>0.02440876760325553</v>
       </c>
     </row>
     <row r="41">
@@ -6482,19 +6482,19 @@
         <v>3352</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1063</v>
+        <v>1074</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>8993</v>
+        <v>9085</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02775621766473337</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.008803891071442364</v>
+        <v>0.008894895951523773</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.07447591653159519</v>
+        <v>0.07523918765397576</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>6</v>
@@ -6503,19 +6503,19 @@
         <v>6864</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>2382</v>
+        <v>2337</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>14771</v>
+        <v>13812</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.04174498153569134</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01448598423433882</v>
+        <v>0.01421398438994715</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.08984073417027316</v>
+        <v>0.08400643897534196</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>9</v>
@@ -6524,19 +6524,19 @@
         <v>10215</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>4646</v>
+        <v>4574</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>18570</v>
+        <v>18196</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.03582156527568391</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01629283984817813</v>
+        <v>0.01604025867822673</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.06511890671854605</v>
+        <v>0.06380730047387462</v>
       </c>
     </row>
     <row r="42">
@@ -6553,19 +6553,19 @@
         <v>116302</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>110482</v>
+        <v>110291</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>119587</v>
+        <v>119651</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.963146932687312</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.9149528450293896</v>
+        <v>0.9133667387838497</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9903509161933097</v>
+        <v>0.9908802950457721</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>139</v>
@@ -6574,19 +6574,19 @@
         <v>150922</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>142771</v>
+        <v>141928</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>157617</v>
+        <v>157584</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.9179237120975924</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.8683476806084732</v>
+        <v>0.8632217238080504</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9586446437840607</v>
+        <v>0.9584418882993834</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>241</v>
@@ -6595,19 +6595,19 @@
         <v>267224</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>256771</v>
+        <v>256744</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>274952</v>
+        <v>274157</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9370730781632519</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9004174636277857</v>
+        <v>0.9003225164127935</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9641707944123603</v>
+        <v>0.961385272585971</v>
       </c>
     </row>
     <row r="43">
@@ -6699,19 +6699,19 @@
         <v>7249</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>3056</v>
+        <v>3102</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>13613</v>
+        <v>13701</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01295215736473482</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.005459942879055296</v>
+        <v>0.005542209316306538</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.02432489999664739</v>
+        <v>0.02448245978475737</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>13</v>
@@ -6720,19 +6720,19 @@
         <v>14546</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>7911</v>
+        <v>8001</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>23625</v>
+        <v>24326</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01957798869993289</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.01064808272726705</v>
+        <v>0.0107685815226197</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.03179725796568014</v>
+        <v>0.03274068024736009</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>20</v>
@@ -6741,19 +6741,19 @@
         <v>21794</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>13971</v>
+        <v>14171</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>34176</v>
+        <v>32616</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01673135400526041</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.01072499060751303</v>
+        <v>0.01087881628067101</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.02623681869041643</v>
+        <v>0.02503883740643558</v>
       </c>
     </row>
     <row r="45">
@@ -6770,19 +6770,19 @@
         <v>4353</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>13081</v>
+        <v>13226</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.007777882856505802</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.001855157322663692</v>
+        <v>0.001848024560781674</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.02337347154135096</v>
+        <v>0.02363329329950233</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>12</v>
@@ -6791,19 +6791,19 @@
         <v>14023</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>7470</v>
+        <v>7458</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>23995</v>
+        <v>23555</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.01887467796945085</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.01005452335678054</v>
+        <v>0.01003738797245904</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.03229588223635121</v>
+        <v>0.03170385414358924</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>15</v>
@@ -6812,19 +6812,19 @@
         <v>18376</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>10831</v>
+        <v>9719</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>30058</v>
+        <v>29712</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.01410719742699042</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.008314523210005052</v>
+        <v>0.00746142072434081</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.02307500119847972</v>
+        <v>0.02280941263137068</v>
       </c>
     </row>
     <row r="46">
@@ -6841,19 +6841,19 @@
         <v>14866</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>8450</v>
+        <v>8357</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>24359</v>
+        <v>25706</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.02656427670902785</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01509991251247086</v>
+        <v>0.01493308215868145</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.04352664901295304</v>
+        <v>0.04593339760845548</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>34</v>
@@ -6862,19 +6862,19 @@
         <v>37005</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>26302</v>
+        <v>25931</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>51108</v>
+        <v>49849</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.04980645580739147</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.03540031055609286</v>
+        <v>0.03490127376150153</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.06878806652361345</v>
+        <v>0.06709345618697879</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>48</v>
@@ -6883,19 +6883,19 @@
         <v>51871</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>38336</v>
+        <v>39040</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>67951</v>
+        <v>66716</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.03982099284371408</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.02942978810324765</v>
+        <v>0.0299702749198102</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.05216544722743355</v>
+        <v>0.05121707626289786</v>
       </c>
     </row>
     <row r="47">
@@ -6912,19 +6912,19 @@
         <v>533169</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>521035</v>
+        <v>520565</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>542009</v>
+        <v>541850</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.9527056830697316</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.9310239410673773</v>
+        <v>0.9301838783279787</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.9685014716999826</v>
+        <v>0.9682166446711699</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>635</v>
@@ -6933,19 +6933,19 @@
         <v>677401</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>659683</v>
+        <v>661364</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>692946</v>
+        <v>692557</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.9117408775232247</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.8878945611598312</v>
+        <v>0.8901563273364567</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.9326632911350197</v>
+        <v>0.9321399935789141</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1115</v>
@@ -6954,19 +6954,19 @@
         <v>1210570</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1190651</v>
+        <v>1192444</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1228792</v>
+        <v>1228512</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.9293404557240351</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.9140491976453448</v>
+        <v>0.9154254175152896</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.9433290030698179</v>
+        <v>0.9431143432013654</v>
       </c>
     </row>
     <row r="48">
@@ -7352,7 +7352,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4253</v>
+        <v>4018</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02060718830642581</v>
@@ -7361,7 +7361,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1093323437741979</v>
+        <v>0.1032963828548583</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -7386,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>3374</v>
+        <v>4153</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.009078744909996765</v>
@@ -7395,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03821953359296726</v>
+        <v>0.04704493314406128</v>
       </c>
     </row>
     <row r="6">
@@ -7415,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4914</v>
+        <v>4030</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0203487282912194</v>
@@ -7424,7 +7424,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1263255562536122</v>
+        <v>0.1036016743643801</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -7433,19 +7433,19 @@
         <v>3454</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1018</v>
+        <v>1028</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9082</v>
+        <v>9395</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06993311950697206</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02060431634365862</v>
+        <v>0.02081614857347889</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1838870493347716</v>
+        <v>0.1902076343560294</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -7454,19 +7454,19 @@
         <v>4246</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1044</v>
+        <v>1285</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>9899</v>
+        <v>10780</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04808811898232839</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01182531441383824</v>
+        <v>0.01455754464307415</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1121178159542783</v>
+        <v>0.122096379006904</v>
       </c>
     </row>
     <row r="7">
@@ -7483,7 +7483,7 @@
         <v>37303</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32986</v>
+        <v>34010</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>38896</v>
@@ -7492,7 +7492,7 @@
         <v>0.9590440834023548</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8480670406417254</v>
+        <v>0.8743921181952842</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -7504,19 +7504,19 @@
         <v>45937</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40309</v>
+        <v>39996</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48373</v>
+        <v>48363</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.930066880493028</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8161129506652282</v>
+        <v>0.8097923656439688</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9793956836563413</v>
+        <v>0.9791838514265211</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>80</v>
@@ -7525,19 +7525,19 @@
         <v>83240</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>77374</v>
+        <v>76274</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>86684</v>
+        <v>86230</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9428331361076748</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8763890470532503</v>
+        <v>0.8639358133376388</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9818412267262717</v>
+        <v>0.9766996406641023</v>
       </c>
     </row>
     <row r="8">
@@ -7645,7 +7645,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5971</v>
+        <v>6789</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01169017170263493</v>
@@ -7654,7 +7654,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05181958469769304</v>
+        <v>0.05891596731638929</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -7666,7 +7666,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8358</v>
+        <v>6743</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.006651277175602036</v>
@@ -7675,7 +7675,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04126977341059864</v>
+        <v>0.03329703282665852</v>
       </c>
     </row>
     <row r="10">
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4468</v>
+        <v>5422</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01007761041607304</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05118455747645231</v>
+        <v>0.06211672430261229</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -7760,19 +7760,19 @@
         <v>9143</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3936</v>
+        <v>3812</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16022</v>
+        <v>16780</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07934344454839205</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.034155948728385</v>
+        <v>0.03308536415167064</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1390434643063405</v>
+        <v>0.1456250841443672</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -7781,19 +7781,19 @@
         <v>10022</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4110</v>
+        <v>4886</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>18188</v>
+        <v>19914</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04948731912971733</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02029413337573965</v>
+        <v>0.02412383755738023</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08980768159934109</v>
+        <v>0.0983277804789211</v>
       </c>
     </row>
     <row r="12">
@@ -7810,7 +7810,7 @@
         <v>86415</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>82827</v>
+        <v>81873</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>87295</v>
@@ -7819,7 +7819,7 @@
         <v>0.989922389583927</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9488154425235477</v>
+        <v>0.9378832756973878</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>1</v>
@@ -7831,19 +7831,19 @@
         <v>104738</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>96398</v>
+        <v>96089</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>110035</v>
+        <v>110245</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.908966383748973</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8365844166113174</v>
+        <v>0.833906462046947</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9549285581093678</v>
+        <v>0.9567576147983581</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>176</v>
@@ -7852,19 +7852,19 @@
         <v>191154</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>182487</v>
+        <v>181832</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>197191</v>
+        <v>196934</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9438614036946806</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9010668333804881</v>
+        <v>0.8978350787966041</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9736734690827065</v>
+        <v>0.9724019055416201</v>
       </c>
     </row>
     <row r="13">
@@ -7972,7 +7972,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8482</v>
+        <v>9629</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02516641716417608</v>
@@ -7981,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1061603322724687</v>
+        <v>0.1205127119405507</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8014</v>
+        <v>9876</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01401755750851999</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05586640080483667</v>
+        <v>0.06885176272480345</v>
       </c>
     </row>
     <row r="15">
@@ -8035,7 +8035,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7479</v>
+        <v>8098</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.03087183486269517</v>
@@ -8044,7 +8044,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.09361027340192409</v>
+        <v>0.1013609141489369</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>7725</v>
+        <v>7457</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01719544414122523</v>
@@ -8065,7 +8065,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05385211866016536</v>
+        <v>0.0519873919054742</v>
       </c>
     </row>
     <row r="16">
@@ -8082,19 +8082,19 @@
         <v>2817</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7664</v>
+        <v>7442</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04432976334618165</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01193840137830046</v>
+        <v>0.01214053169289466</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1206091761740011</v>
+        <v>0.1171083401860155</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -8116,19 +8116,19 @@
         <v>2817</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8358</v>
+        <v>7827</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01963832622223829</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005394572437705935</v>
+        <v>0.005377727789824136</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0582668263995546</v>
+        <v>0.05456241704232501</v>
       </c>
     </row>
     <row r="17">
@@ -8145,19 +8145,19 @@
         <v>60729</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>55882</v>
+        <v>56104</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>62787</v>
+        <v>62775</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9556702366538183</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8793908238259975</v>
+        <v>0.8828916598139845</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9880615986216996</v>
+        <v>0.9878594683071054</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>66</v>
@@ -8166,19 +8166,19 @@
         <v>75420</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>67834</v>
+        <v>67923</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>78667</v>
+        <v>78663</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9439617479731287</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8490142815936794</v>
+        <v>0.8501278888495246</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9846017472934825</v>
+        <v>0.9845503600439341</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>135</v>
@@ -8187,19 +8187,19 @@
         <v>136149</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>127604</v>
+        <v>128668</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>140226</v>
+        <v>140543</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9491486721280165</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8895803112484254</v>
+        <v>0.8969994290955694</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9775706485456221</v>
+        <v>0.9797831262689195</v>
       </c>
     </row>
     <row r="18">
@@ -8341,7 +8341,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4411</v>
+        <v>4837</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01305259388437836</v>
@@ -8350,7 +8350,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0681689782839236</v>
+        <v>0.07474768140410953</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5533</v>
+        <v>4817</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0105791287638218</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06042255978594024</v>
+        <v>0.05260767321095285</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -8383,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6426</v>
+        <v>5659</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0116032939397186</v>
@@ -8392,7 +8392,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04111664684469284</v>
+        <v>0.03620758555448671</v>
       </c>
     </row>
     <row r="21">
@@ -8412,7 +8412,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4181</v>
+        <v>4165</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01278661573433639</v>
@@ -8421,7 +8421,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06461095038213524</v>
+        <v>0.06435776853455868</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -8446,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>4544</v>
+        <v>5070</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.005294437525658208</v>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02907331976037065</v>
+        <v>0.03244059502797276</v>
       </c>
     </row>
     <row r="22">
@@ -8472,7 +8472,7 @@
         <v>63040</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>58827</v>
+        <v>59210</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>64712</v>
@@ -8481,7 +8481,7 @@
         <v>0.9741607903812852</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9090634091721949</v>
+        <v>0.9149714969451384</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -8493,7 +8493,7 @@
         <v>90605</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>86041</v>
+        <v>86757</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>91574</v>
@@ -8502,7 +8502,7 @@
         <v>0.9894208712361782</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.939577440214062</v>
+        <v>0.9473923267890472</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -8514,19 +8514,19 @@
         <v>153644</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>148325</v>
+        <v>149139</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>155466</v>
+        <v>155458</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9831022685346232</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9490659681456065</v>
+        <v>0.9542778022574975</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9947575731946858</v>
+        <v>0.9947092587756381</v>
       </c>
     </row>
     <row r="23">
@@ -8681,7 +8681,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5110</v>
+        <v>5493</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02349406941427799</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1011337907048395</v>
+        <v>0.1087074074254262</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>7128</v>
+        <v>6040</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01281911885739694</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07696370737671004</v>
+        <v>0.06521602163617374</v>
       </c>
     </row>
     <row r="26">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4491</v>
+        <v>4529</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01898938165383374</v>
@@ -8740,7 +8740,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.106715118207106</v>
+        <v>0.107639292517428</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -8752,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8052</v>
+        <v>7014</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04638746912748383</v>
@@ -8761,7 +8761,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1593531863628644</v>
+        <v>0.1387946237732286</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3</v>
@@ -8770,19 +8770,19 @@
         <v>3143</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>8013</v>
+        <v>8625</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03393865815408249</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.008511560043503563</v>
+        <v>0.008416391089172304</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.08652466931579343</v>
+        <v>0.09313539991301326</v>
       </c>
     </row>
     <row r="27">
@@ -8799,7 +8799,7 @@
         <v>41281</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>37589</v>
+        <v>37551</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>42080</v>
@@ -8808,7 +8808,7 @@
         <v>0.9810106183461662</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.893284881792892</v>
+        <v>0.8923607074825712</v>
       </c>
       <c r="I27" s="6" t="n">
         <v>1</v>
@@ -8820,19 +8820,19 @@
         <v>47001</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>41070</v>
+        <v>42084</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>49401</v>
+        <v>49418</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9301184614582382</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8127548463641421</v>
+        <v>0.8328214605411858</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9776238082265797</v>
+        <v>0.9779521243760216</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>89</v>
@@ -8841,19 +8841,19 @@
         <v>88282</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>82826</v>
+        <v>82731</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>91485</v>
+        <v>91458</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9532422229885206</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8943374937001318</v>
+        <v>0.893309154898283</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9878292076110223</v>
+        <v>0.9875363123534797</v>
       </c>
     </row>
     <row r="28">
@@ -8958,19 +8958,19 @@
         <v>4907</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1301</v>
+        <v>1226</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>12918</v>
+        <v>11159</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07281076067386051</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01930896864055512</v>
+        <v>0.018199632921608</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.191701367339982</v>
+        <v>0.1655925027122104</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -8979,19 +8979,19 @@
         <v>4907</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1223</v>
+        <v>1267</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>10824</v>
+        <v>11566</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04235858838454958</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0105592907245986</v>
+        <v>0.01093947790218796</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09343982944177234</v>
+        <v>0.09985078238865384</v>
       </c>
     </row>
     <row r="30">
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5061</v>
+        <v>5016</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03408805658412575</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1044730680093349</v>
+        <v>0.1035295853923575</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -9045,7 +9045,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5098</v>
+        <v>5142</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01425689503172908</v>
@@ -9054,7 +9054,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04401384306464857</v>
+        <v>0.0443933290232793</v>
       </c>
     </row>
     <row r="31">
@@ -9074,7 +9074,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>4144</v>
+        <v>3878</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01582249802875224</v>
@@ -9083,7 +9083,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.08553845587840979</v>
+        <v>0.0800507494180276</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -9095,7 +9095,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>7990</v>
+        <v>8142</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03821019216655746</v>
@@ -9104,7 +9104,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1185736227493914</v>
+        <v>0.1208208814837846</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>3</v>
@@ -9113,19 +9113,19 @@
         <v>3341</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>9233</v>
+        <v>9325</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02884682454430991</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.006618777108757901</v>
+        <v>0.006551042796522115</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07970576008725304</v>
+        <v>0.08050563947393276</v>
       </c>
     </row>
     <row r="32">
@@ -9142,19 +9142,19 @@
         <v>46028</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>41901</v>
+        <v>42586</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>47682</v>
+        <v>47694</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.950089445387122</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8649113810215731</v>
+        <v>0.8790401589602209</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9842355607319011</v>
+        <v>0.9844681102036843</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>53</v>
@@ -9163,19 +9163,19 @@
         <v>59907</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>52303</v>
+        <v>53566</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>64389</v>
+        <v>64839</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.888979047159582</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7761525461773153</v>
+        <v>0.7948848901366189</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9554940756176978</v>
+        <v>0.9621763441598792</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>105</v>
@@ -9184,19 +9184,19 @@
         <v>105935</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>98242</v>
+        <v>97867</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>110910</v>
+        <v>111013</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9145376920394114</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8481293849038721</v>
+        <v>0.8448898618195763</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9574913621197307</v>
+        <v>0.958379432739737</v>
       </c>
     </row>
     <row r="33">
@@ -9288,19 +9288,19 @@
         <v>2696</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>0</v>
+        <v>875</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>7271</v>
+        <v>7241</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02403536390689642</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0</v>
+        <v>0.007797436404726656</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.06481530177772947</v>
+        <v>0.06454239317953325</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -9312,7 +9312,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>6478</v>
+        <v>6411</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.008610170099561013</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0438831403186699</v>
+        <v>0.04342745400622218</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>4</v>
@@ -9330,19 +9330,19 @@
         <v>3967</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>10363</v>
+        <v>10152</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.0152707355012497</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.003515650923889945</v>
+        <v>0.003507285137777051</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03988749911129796</v>
+        <v>0.0390754318513787</v>
       </c>
     </row>
     <row r="35">
@@ -9359,19 +9359,19 @@
         <v>2808</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>896</v>
+        <v>872</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>8204</v>
+        <v>7360</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02503227252139045</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.00798408366790861</v>
+        <v>0.007774400016308315</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.07312847449225661</v>
+        <v>0.06560907639911652</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>0</v>
@@ -9393,19 +9393,19 @@
         <v>2808</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>7560</v>
+        <v>7729</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01080888126036564</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.003437839478525512</v>
+        <v>0.003444004861542889</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02909820507435923</v>
+        <v>0.0297482979856119</v>
       </c>
     </row>
     <row r="36">
@@ -9425,7 +9425,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4819</v>
+        <v>4432</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.007935842788833062</v>
@@ -9434,7 +9434,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04295468403048702</v>
+        <v>0.03950352356211288</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>8</v>
@@ -9443,19 +9443,19 @@
         <v>9799</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>4531</v>
+        <v>4694</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>18380</v>
+        <v>17717</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.06637730786830573</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03069028033709511</v>
+        <v>0.03180000246103834</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1245047133678216</v>
+        <v>0.1200124446734978</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>9</v>
@@ -9464,19 +9464,19 @@
         <v>10689</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5420</v>
+        <v>5262</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>19970</v>
+        <v>19234</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.04114240935135968</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02086203841612651</v>
+        <v>0.02025274337175426</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.07686284104475891</v>
+        <v>0.07402971360165403</v>
       </c>
     </row>
     <row r="37">
@@ -9493,19 +9493,19 @@
         <v>105790</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>99986</v>
+        <v>100004</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>109457</v>
+        <v>109507</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9429965207828801</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.8912628989055617</v>
+        <v>0.8914185982501733</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9756811555513202</v>
+        <v>0.9761274790209357</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>116</v>
@@ -9514,19 +9514,19 @@
         <v>136555</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>127948</v>
+        <v>127996</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>142408</v>
+        <v>142425</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9250125220321332</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.8667076704408002</v>
+        <v>0.8670326028457723</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9646584521718605</v>
+        <v>0.9647785270344036</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>218</v>
@@ -9535,19 +9535,19 @@
         <v>242345</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>231476</v>
+        <v>232438</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>249404</v>
+        <v>249179</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.932777973887025</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.8909433559617517</v>
+        <v>0.8946477809735868</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9599464926968321</v>
+        <v>0.9590817685354547</v>
       </c>
     </row>
     <row r="38">
@@ -9689,7 +9689,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>3359</v>
+        <v>4631</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.006032252099316164</v>
@@ -9698,7 +9698,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02503679293014301</v>
+        <v>0.03451789047554467</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>0</v>
@@ -9723,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4098</v>
+        <v>4087</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.002606853862021544</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.0132000679247335</v>
+        <v>0.0131642710939703</v>
       </c>
     </row>
     <row r="41">
@@ -9752,7 +9752,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>9579</v>
+        <v>8511</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01817809285663769</v>
@@ -9761,7 +9761,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.07139743960819687</v>
+        <v>0.06343758678812564</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>4</v>
@@ -9770,19 +9770,19 @@
         <v>4966</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1311</v>
+        <v>1296</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>11814</v>
+        <v>11485</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.02816602519523821</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.007438045029532991</v>
+        <v>0.007349572194167352</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.06701162129852582</v>
+        <v>0.06514646915157578</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>6</v>
@@ -9791,19 +9791,19 @@
         <v>7405</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2933</v>
+        <v>3159</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>15204</v>
+        <v>16110</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02384971354880648</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.009446372366162662</v>
+        <v>0.01017544442331934</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.04897308595763259</v>
+        <v>0.05189114844373766</v>
       </c>
     </row>
     <row r="42">
@@ -9820,7 +9820,7 @@
         <v>130920</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>123832</v>
+        <v>124328</v>
       </c>
       <c r="F42" s="5" t="n">
         <v>133355</v>
@@ -9829,10 +9829,10 @@
         <v>0.9757896550440461</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.9229654303892095</v>
+        <v>0.9266570512121848</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.993937231102598</v>
+        <v>0.9939389750489362</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>138</v>
@@ -9841,19 +9841,19 @@
         <v>171331</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>164483</v>
+        <v>164812</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>174986</v>
+        <v>175001</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.9718339748047617</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.9329883787014733</v>
+        <v>0.9348535308484242</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9925619549704671</v>
+        <v>0.9926504278058327</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>276</v>
@@ -9862,19 +9862,19 @@
         <v>302251</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>294662</v>
+        <v>293716</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>307219</v>
+        <v>306812</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.973543432589172</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9490979487369033</v>
+        <v>0.9460528784395196</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9895460990834785</v>
+        <v>0.9882339294488436</v>
       </c>
     </row>
     <row r="43">
@@ -9966,19 +9966,19 @@
         <v>2696</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>7315</v>
+        <v>7194</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.004559933221110048</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.001501138794234005</v>
+        <v>0.001505000536003115</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01237109099482628</v>
+        <v>0.01216575661253567</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>7</v>
@@ -9987,19 +9987,19 @@
         <v>9535</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>3792</v>
+        <v>3820</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>18961</v>
+        <v>18432</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01225737631779873</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.004874687849334153</v>
+        <v>0.004911033130764361</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.02437403184382414</v>
+        <v>0.02369368180412677</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>10</v>
@@ -10008,19 +10008,19 @@
         <v>12232</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>5887</v>
+        <v>5871</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>21889</v>
+        <v>21042</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.008933159625005155</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.004299492208038225</v>
+        <v>0.004287464916410565</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01598634462095299</v>
+        <v>0.01536762345706017</v>
       </c>
     </row>
     <row r="45">
@@ -10037,19 +10037,19 @@
         <v>6915</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>3348</v>
+        <v>3382</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>13934</v>
+        <v>13187</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.01169436586092348</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.005661516940281761</v>
+        <v>0.005718775395997295</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.02356462775475779</v>
+        <v>0.02229989872913645</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>4</v>
@@ -10058,19 +10058,19 @@
         <v>4623</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>1200</v>
+        <v>1230</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>11520</v>
+        <v>11067</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.005942100240314753</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.001542975916832179</v>
+        <v>0.001581231292109287</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.0148087663937906</v>
+        <v>0.01422614973314902</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>12</v>
@@ -10079,19 +10079,19 @@
         <v>11538</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>6206</v>
+        <v>6451</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>20200</v>
+        <v>19722</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.008426272861952707</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.004532490007872514</v>
+        <v>0.004711121135374276</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.01475244449700017</v>
+        <v>0.01440331987214688</v>
       </c>
     </row>
     <row r="46">
@@ -10108,19 +10108,19 @@
         <v>10210</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>5261</v>
+        <v>5230</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>18103</v>
+        <v>18050</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01726697693006572</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.008896234329207433</v>
+        <v>0.008844077248536149</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.03061389740223028</v>
+        <v>0.03052483734291439</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>26</v>
@@ -10129,19 +10129,19 @@
         <v>32280</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>20204</v>
+        <v>21372</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>44555</v>
+        <v>47754</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.04149484888232918</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.02597193313208631</v>
+        <v>0.02747327512817228</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.05727400950012623</v>
+        <v>0.06138550011110823</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>37</v>
@@ -10150,19 +10150,19 @@
         <v>42491</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>30769</v>
+        <v>30581</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>58206</v>
+        <v>58794</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.03103180350960978</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.02247104671473039</v>
+        <v>0.02233402627508918</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.04250939526375974</v>
+        <v>0.04293854808057089</v>
       </c>
     </row>
     <row r="47">
@@ -10179,19 +10179,19 @@
         <v>571506</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>561227</v>
+        <v>561678</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>578752</v>
+        <v>578810</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.9664787239879008</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.9490960542616396</v>
+        <v>0.9498580257438826</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.9787323135883803</v>
+        <v>0.9788306369316603</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>618</v>
@@ -10200,19 +10200,19 @@
         <v>731493</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>717683</v>
+        <v>713987</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>745472</v>
+        <v>744826</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.9403056745595574</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.9225536322148494</v>
+        <v>0.9178022200908545</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.9582756033592416</v>
+        <v>0.9574443174385961</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1223</v>
@@ -10221,19 +10221,19 @@
         <v>1302999</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1284761</v>
+        <v>1285667</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1318883</v>
+        <v>1318480</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.9516087640034323</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.9382889025375892</v>
+        <v>0.9389512079832389</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.9632093116541243</v>
+        <v>0.9629149706512818</v>
       </c>
     </row>
     <row r="48">
@@ -10629,19 +10629,19 @@
         <v>2118</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5438</v>
+        <v>6107</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03244841305827854</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.00984655849137767</v>
+        <v>0.009876845813626618</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08331222154854818</v>
+        <v>0.09355621173323481</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -10650,19 +10650,19 @@
         <v>2118</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5753</v>
+        <v>6118</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01677963870815814</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.005131476242800518</v>
+        <v>0.005027591836713517</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04557759659727301</v>
+        <v>0.0484695334955761</v>
       </c>
     </row>
     <row r="6">
@@ -10692,19 +10692,19 @@
         <v>2235</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>622</v>
+        <v>647</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5431</v>
+        <v>4814</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0342361197580496</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.00952297930765294</v>
+        <v>0.009913050197861838</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08320563317494042</v>
+        <v>0.07374817431395107</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -10713,19 +10713,19 @@
         <v>2235</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>493</v>
+        <v>619</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5303</v>
+        <v>5180</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01770409293291287</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.003903539089295134</v>
+        <v>0.004901657301846087</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04200997509310389</v>
+        <v>0.04103606569420209</v>
       </c>
     </row>
     <row r="7">
@@ -10755,19 +10755,19 @@
         <v>60923</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>57115</v>
+        <v>57077</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>63365</v>
+        <v>63462</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.9333154671836718</v>
+        <v>0.9333154671836719</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8749756344437408</v>
+        <v>0.8744018718493424</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9707303976251713</v>
+        <v>0.9722054046642716</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>208</v>
@@ -10776,19 +10776,19 @@
         <v>121878</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>117319</v>
+        <v>117411</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>124392</v>
+        <v>124366</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.9655162683589289</v>
+        <v>0.965516268358929</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.929400483855304</v>
+        <v>0.9301297016008605</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.985431292773574</v>
+        <v>0.9852273099583703</v>
       </c>
     </row>
     <row r="8">
@@ -10893,19 +10893,19 @@
         <v>3849</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1193</v>
+        <v>1489</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9075</v>
+        <v>8671</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02843881876330678</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.008814299411199874</v>
+        <v>0.01100316025665663</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06705681934293692</v>
+        <v>0.06407660979313912</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>5</v>
@@ -10914,19 +10914,19 @@
         <v>3849</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1184</v>
+        <v>1444</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8647</v>
+        <v>9979</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01720404816882766</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.005294886471048108</v>
+        <v>0.006453018413645387</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0386540142416051</v>
+        <v>0.04460794130936582</v>
       </c>
     </row>
     <row r="10">
@@ -10946,7 +10946,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4550</v>
+        <v>4562</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01037287233421965</v>
@@ -10955,7 +10955,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05148402433977434</v>
+        <v>0.05161911701103278</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -10967,7 +10967,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3939</v>
+        <v>4386</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008323539049556676</v>
@@ -10976,7 +10976,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02910728485015347</v>
+        <v>0.03240994227558228</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -10985,19 +10985,19 @@
         <v>2043</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>597</v>
+        <v>521</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5704</v>
+        <v>5471</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009133129262020961</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002670865618751952</v>
+        <v>0.002329055834187947</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02549647641773727</v>
+        <v>0.02445771103194832</v>
       </c>
     </row>
     <row r="11">
@@ -11014,19 +11014,19 @@
         <v>5697</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1915</v>
+        <v>1991</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11471</v>
+        <v>11500</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.06446409094885877</v>
+        <v>0.06446409094885878</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02166386173106228</v>
+        <v>0.02252514273708366</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.129803744941474</v>
+        <v>0.1301294706191824</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -11035,19 +11035,19 @@
         <v>9909</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5496</v>
+        <v>5726</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15720</v>
+        <v>15776</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07322045885680811</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04061387407304218</v>
+        <v>0.04231134299086736</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1161598561883603</v>
+        <v>0.1165739214498955</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>21</v>
@@ -11056,19 +11056,19 @@
         <v>15606</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>9890</v>
+        <v>10310</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>22781</v>
+        <v>23659</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.06976125102172041</v>
+        <v>0.0697612510217204</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0442124030778268</v>
+        <v>0.04608915461102451</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1018367672809077</v>
+        <v>0.1057631938928384</v>
       </c>
     </row>
     <row r="12">
@@ -11085,19 +11085,19 @@
         <v>81759</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>75464</v>
+        <v>75936</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>85533</v>
+        <v>85514</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9251630367169217</v>
+        <v>0.9251630367169215</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8539278831491348</v>
+        <v>0.8592671344460927</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9678643161642742</v>
+        <v>0.9676463789630479</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>201</v>
@@ -11106,19 +11106,19 @@
         <v>120444</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>113692</v>
+        <v>113586</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>125960</v>
+        <v>125498</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8900171833303285</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8401206356700893</v>
+        <v>0.8393393802780641</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9307763967568525</v>
+        <v>0.9273645520249946</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>289</v>
@@ -11127,19 +11127,19 @@
         <v>202204</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>193757</v>
+        <v>193065</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>209351</v>
+        <v>208281</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.9039015715474308</v>
+        <v>0.9039015715474309</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8661407823533643</v>
+        <v>0.8630499011177365</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9358504281640281</v>
+        <v>0.9310686006134645</v>
       </c>
     </row>
     <row r="13">
@@ -11234,16 +11234,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3041</v>
+        <v>3045</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.008425226696960275</v>
+        <v>0.008425226696960273</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04207275623454238</v>
+        <v>0.04212962624898697</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -11252,19 +11252,19 @@
         <v>1568</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4458</v>
+        <v>4220</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01825987363267493</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.005771632806081152</v>
+        <v>0.005825618973290376</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05192568020654788</v>
+        <v>0.04915355375102418</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -11273,19 +11273,19 @@
         <v>2177</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5458</v>
+        <v>5428</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.01376436550348422</v>
+        <v>0.01376436550348423</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003493165332757669</v>
+        <v>0.003472062805523718</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03451286147709798</v>
+        <v>0.03432595339032539</v>
       </c>
     </row>
     <row r="15">
@@ -11305,7 +11305,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4435</v>
+        <v>3938</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01803761712085632</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0613605863848871</v>
+        <v>0.05447418803662837</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -11326,7 +11326,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>2306</v>
+        <v>2021</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.004639477247166711</v>
@@ -11335,7 +11335,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02686544534395096</v>
+        <v>0.02354102611415147</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>3</v>
@@ -11344,19 +11344,19 @@
         <v>1702</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>5012</v>
+        <v>4875</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01076389097670024</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.002534965785354973</v>
+        <v>0.002539520146655278</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.03169696188221316</v>
+        <v>0.03082694817926725</v>
       </c>
     </row>
     <row r="16">
@@ -11373,19 +11373,19 @@
         <v>3388</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1254</v>
+        <v>1164</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6874</v>
+        <v>6859</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.04687637262779433</v>
+        <v>0.04687637262779432</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0173429704015363</v>
+        <v>0.01610909319188259</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09509434729947168</v>
+        <v>0.09488778714931732</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -11394,19 +11394,19 @@
         <v>6825</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4013</v>
+        <v>3812</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11380</v>
+        <v>11071</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07950418302373968</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04674854759970459</v>
+        <v>0.04440081054967283</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1325609076591609</v>
+        <v>0.1289623974816782</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -11415,19 +11415,19 @@
         <v>10214</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6469</v>
+        <v>6582</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15475</v>
+        <v>14953</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.0645897089372323</v>
+        <v>0.06458970893723233</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04090660286192874</v>
+        <v>0.04162543295840383</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09786099223486834</v>
+        <v>0.09456156298208425</v>
       </c>
     </row>
     <row r="17">
@@ -11444,19 +11444,19 @@
         <v>66984</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>62920</v>
+        <v>62981</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>69895</v>
+        <v>69892</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9266607835543891</v>
+        <v>0.926660783554389</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.870442092558939</v>
+        <v>0.8712928100531985</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9669367211239295</v>
+        <v>0.9668992959534203</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>152</v>
@@ -11465,19 +11465,19 @@
         <v>77059</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>72365</v>
+        <v>72355</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>80464</v>
+        <v>80494</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8975964660964186</v>
+        <v>0.8975964660964189</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8429180901474354</v>
+        <v>0.8428122230229569</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9372634615720391</v>
+        <v>0.9376145701108122</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>265</v>
@@ -11486,19 +11486,19 @@
         <v>144042</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>137950</v>
+        <v>138803</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>148514</v>
+        <v>148769</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9108820345825831</v>
+        <v>0.9108820345825833</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8723538366306514</v>
+        <v>0.8777502076058644</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9391621718971734</v>
+        <v>0.9407695186246966</v>
       </c>
     </row>
     <row r="18">
@@ -11606,7 +11606,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>2756</v>
+        <v>2880</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.00824812885257481</v>
@@ -11615,7 +11615,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02494033828788407</v>
+        <v>0.02605802013613537</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -11627,7 +11627,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>3214</v>
+        <v>3601</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.004706440346627338</v>
@@ -11636,7 +11636,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01659472836643632</v>
+        <v>0.01859427298218055</v>
       </c>
     </row>
     <row r="20">
@@ -11669,7 +11669,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2602</v>
+        <v>2983</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.007847843214608146</v>
@@ -11678,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0235423395916504</v>
+        <v>0.02699432773613393</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -11690,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2955</v>
+        <v>2717</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.004478034545702723</v>
@@ -11699,7 +11699,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01525965500029137</v>
+        <v>0.01402995205986533</v>
       </c>
     </row>
     <row r="21">
@@ -11729,19 +11729,19 @@
         <v>2845</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1230</v>
+        <v>1118</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6084</v>
+        <v>5820</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02574368844163367</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01112774821258407</v>
+        <v>0.01011956982704206</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05505252073635594</v>
+        <v>0.05266899451001762</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>7</v>
@@ -11750,19 +11750,19 @@
         <v>2845</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1167</v>
+        <v>1237</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>5532</v>
+        <v>5654</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0146895297246582</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.006026880800001592</v>
+        <v>0.006387597172877682</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02856479804783675</v>
+        <v>0.02919583045040594</v>
       </c>
     </row>
     <row r="22">
@@ -11792,19 +11792,19 @@
         <v>105881</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>102739</v>
+        <v>102762</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>108018</v>
+        <v>108351</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.9581603394911834</v>
+        <v>0.9581603394911835</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9297279308354897</v>
+        <v>0.9299357622985917</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.977501330835869</v>
+        <v>0.9805188745602058</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>363</v>
@@ -11813,19 +11813,19 @@
         <v>189037</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>185748</v>
+        <v>185350</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>191447</v>
+        <v>191164</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9761259953830117</v>
+        <v>0.9761259953830118</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9591424310155822</v>
+        <v>0.9570889574675495</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9885716668745557</v>
+        <v>0.9871128910608897</v>
       </c>
     </row>
     <row r="23">
@@ -11980,7 +11980,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.007609121994095869</v>
@@ -11989,7 +11989,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03785139769116941</v>
+        <v>0.03783602934287889</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1</v>
@@ -12001,16 +12001,16 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2585</v>
+        <v>2356</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.004790773615174272</v>
+        <v>0.004790773615174271</v>
       </c>
       <c r="V25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02660016611617649</v>
+        <v>0.02423780082044241</v>
       </c>
     </row>
     <row r="26">
@@ -12027,19 +12027,19 @@
         <v>1541</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4005</v>
+        <v>4119</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.04279887635382301</v>
+        <v>0.04279887635382299</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01355030858303104</v>
+        <v>0.01361899731555003</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1112498734999317</v>
+        <v>0.1144173295699249</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>10</v>
@@ -12048,19 +12048,19 @@
         <v>4173</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1963</v>
+        <v>2241</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7667</v>
+        <v>7246</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06819396688569458</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03207251833551776</v>
+        <v>0.03662606315659325</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1252845994539917</v>
+        <v>0.1184060605014759</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>13</v>
@@ -12069,19 +12069,19 @@
         <v>5714</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3178</v>
+        <v>3108</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>9506</v>
+        <v>9313</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05878786033508306</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03269170363966256</v>
+        <v>0.03197169855007177</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0977996723040912</v>
+        <v>0.09581028843265663</v>
       </c>
     </row>
     <row r="27">
@@ -12098,19 +12098,19 @@
         <v>34460</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>31996</v>
+        <v>31882</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>35513</v>
+        <v>35511</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9572011236461772</v>
+        <v>0.9572011236461769</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8887501265000699</v>
+        <v>0.8855826704300749</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9864496914169689</v>
+        <v>0.9863810026844499</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>153</v>
@@ -12119,19 +12119,19 @@
         <v>56558</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>52964</v>
+        <v>53405</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>58836</v>
+        <v>58787</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9241969111202096</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8654753528006269</v>
+        <v>0.8726810710574364</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9614220882196901</v>
+        <v>0.9606181719614064</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>220</v>
@@ -12140,19 +12140,19 @@
         <v>91018</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>87303</v>
+        <v>87489</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>93772</v>
+        <v>93822</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9364213660497427</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8981966135545726</v>
+        <v>0.9001149982523228</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9647494678103997</v>
+        <v>0.9652678060962576</v>
       </c>
     </row>
     <row r="28">
@@ -12244,19 +12244,19 @@
         <v>1504</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4002</v>
+        <v>3795</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02498060767940158</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.00787114978297683</v>
+        <v>0.007845291944073844</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06644604998559582</v>
+        <v>0.06301280610136339</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>9</v>
@@ -12265,19 +12265,19 @@
         <v>3641</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1733</v>
+        <v>1856</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6593</v>
+        <v>7369</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05409880587774825</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0257514368887328</v>
+        <v>0.02757494994819162</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09795220919565407</v>
+        <v>0.1094753081259523</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>13</v>
@@ -12286,19 +12286,19 @@
         <v>5146</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>8535</v>
+        <v>8560</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04034852454888865</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02290776516357054</v>
+        <v>0.02289487568536736</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06692638363155599</v>
+        <v>0.06712030680331831</v>
       </c>
     </row>
     <row r="30">
@@ -12362,19 +12362,19 @@
         <v>1159</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>3131</v>
+        <v>3158</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01925226346303123</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.005773559997243591</v>
+        <v>0.005719894114134019</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05198512420025544</v>
+        <v>0.05243520378557782</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>14</v>
@@ -12383,19 +12383,19 @@
         <v>4459</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2520</v>
+        <v>2512</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>7219</v>
+        <v>7161</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06624918967926563</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03744069899706228</v>
+        <v>0.03732260716457999</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1072458020358983</v>
+        <v>0.1063833283848408</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>17</v>
@@ -12404,19 +12404,19 @@
         <v>5619</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3402</v>
+        <v>3306</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>8811</v>
+        <v>8835</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.04405616273910379</v>
+        <v>0.04405616273910378</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02667944215829831</v>
+        <v>0.02592356949933853</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06909234225273611</v>
+        <v>0.06927759397012052</v>
       </c>
     </row>
     <row r="32">
@@ -12433,19 +12433,19 @@
         <v>57560</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>55074</v>
+        <v>54923</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>59075</v>
+        <v>59089</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.9557671288575671</v>
+        <v>0.9557671288575672</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9144941526513092</v>
+        <v>0.9119772481841533</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9809155704875325</v>
+        <v>0.9811465282075544</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>154</v>
@@ -12454,19 +12454,19 @@
         <v>59208</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>55503</v>
+        <v>55359</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>62118</v>
+        <v>61796</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8796520044429862</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8246061502987304</v>
+        <v>0.8224606471436298</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9228806179416986</v>
+        <v>0.918093144380197</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>282</v>
@@ -12475,19 +12475,19 @@
         <v>116768</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>112468</v>
+        <v>112458</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>120026</v>
+        <v>120117</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9155953127120074</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8818779324799868</v>
+        <v>0.8817993819815525</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9411463285408136</v>
+        <v>0.9418615121877835</v>
       </c>
     </row>
     <row r="33">
@@ -12592,19 +12592,19 @@
         <v>2026</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>5441</v>
+        <v>5419</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0122947842718216</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.004004660927048374</v>
+        <v>0.003962009736530942</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03302291742088636</v>
+        <v>0.03288921217889665</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3</v>
@@ -12613,19 +12613,19 @@
         <v>2026</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5600</v>
+        <v>5492</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.006408524660549269</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.002090533411893978</v>
+        <v>0.002069863256751434</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01771487499400163</v>
+        <v>0.01737350945947581</v>
       </c>
     </row>
     <row r="35">
@@ -12645,16 +12645,16 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>4799</v>
+        <v>5300</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.006310078036434552</v>
+        <v>0.006310078036434553</v>
       </c>
       <c r="H35" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03170909297150136</v>
+        <v>0.03502050692054516</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>4</v>
@@ -12663,19 +12663,19 @@
         <v>2616</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>5964</v>
+        <v>6006</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01587659740408203</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.003912344970793068</v>
+        <v>0.003977669693228301</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.0361987095894208</v>
+        <v>0.03644874900015438</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>5</v>
@@ -12684,19 +12684,19 @@
         <v>3571</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1290</v>
+        <v>1301</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>8150</v>
+        <v>8343</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01129652382741123</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.00408080758858283</v>
+        <v>0.004114853047970542</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02578337448742364</v>
+        <v>0.02639182811636075</v>
       </c>
     </row>
     <row r="36">
@@ -12716,16 +12716,16 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4364</v>
+        <v>4420</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.005782770461845842</v>
+        <v>0.005782770461845843</v>
       </c>
       <c r="H36" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.0288366281498318</v>
+        <v>0.02920844375213309</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>8</v>
@@ -12734,19 +12734,19 @@
         <v>5298</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2600</v>
+        <v>2625</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>9874</v>
+        <v>9922</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.032156860684528</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01577695725390533</v>
+        <v>0.01593259910914076</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05992801505362959</v>
+        <v>0.06022018648401804</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>9</v>
@@ -12755,19 +12755,19 @@
         <v>6174</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2874</v>
+        <v>3259</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>11884</v>
+        <v>11544</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01952998260114172</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.009091091710601955</v>
+        <v>0.01031097131745819</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03759407429240975</v>
+        <v>0.03651723704453511</v>
       </c>
     </row>
     <row r="37">
@@ -12784,16 +12784,16 @@
         <v>149511</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>145096</v>
+        <v>145622</v>
       </c>
       <c r="F37" s="5" t="n">
         <v>151341</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.9879071515017195</v>
+        <v>0.9879071515017197</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9587369669132813</v>
+        <v>0.9622086524369734</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>1</v>
@@ -12805,19 +12805,19 @@
         <v>154829</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>148963</v>
+        <v>149298</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>158877</v>
+        <v>158934</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9396717576395685</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9040718120746473</v>
+        <v>0.9061054987234082</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9642414469571214</v>
+        <v>0.9645891232590059</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>393</v>
@@ -12826,19 +12826,19 @@
         <v>304341</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>296939</v>
+        <v>297489</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>308609</v>
+        <v>309253</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9627649689108979</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9393513320530193</v>
+        <v>0.9410901610994971</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9762668144555301</v>
+        <v>0.9783059252730568</v>
       </c>
     </row>
     <row r="38">
@@ -12980,16 +12980,16 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>2656</v>
+        <v>3688</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.004027551061653866</v>
+        <v>0.004027551061653865</v>
       </c>
       <c r="H40" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01623955076825504</v>
+        <v>0.02254776023904915</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1</v>
@@ -13001,16 +13001,16 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>2660</v>
+        <v>3004</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.002801984514252992</v>
+        <v>0.002801984514252991</v>
       </c>
       <c r="O40" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01250359074669088</v>
+        <v>0.01411731872203879</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2</v>
@@ -13022,7 +13022,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4411</v>
+        <v>4434</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.003334633475778142</v>
@@ -13031,7 +13031,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01172103614585816</v>
+        <v>0.01178369741829443</v>
       </c>
     </row>
     <row r="41">
@@ -13051,7 +13051,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>4577</v>
+        <v>3382</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.004157328769660316</v>
@@ -13060,7 +13060,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02798575558077599</v>
+        <v>0.02067945958831044</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>7</v>
@@ -13069,19 +13069,19 @@
         <v>5663</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>2318</v>
+        <v>2150</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>12562</v>
+        <v>13615</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.0266172440446313</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01089313655058125</v>
+        <v>0.01010352531578305</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.05903924381125122</v>
+        <v>0.06398905112772363</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>8</v>
@@ -13090,19 +13090,19 @@
         <v>6343</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>3002</v>
+        <v>2824</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>13650</v>
+        <v>13474</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01685583975979073</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.007976389530017005</v>
+        <v>0.00750497212176161</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03627269387308431</v>
+        <v>0.03580481832485469</v>
       </c>
     </row>
     <row r="42">
@@ -13119,16 +13119,16 @@
         <v>162215</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>158735</v>
+        <v>159367</v>
       </c>
       <c r="F42" s="5" t="n">
         <v>163554</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.9918151201686859</v>
+        <v>0.9918151201686858</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.9705339581847026</v>
+        <v>0.9743970793243487</v>
       </c>
       <c r="I42" s="6" t="n">
         <v>1</v>
@@ -13140,19 +13140,19 @@
         <v>206507</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>199282</v>
+        <v>199068</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>210080</v>
+        <v>210045</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.9705807714411158</v>
+        <v>0.9705807714411157</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.9366258135089763</v>
+        <v>0.9356210884877908</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9873777596154552</v>
+        <v>0.987209731093695</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>568</v>
@@ -13161,19 +13161,19 @@
         <v>368723</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>361500</v>
+        <v>361371</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>372642</v>
+        <v>372669</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.979809526764431</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9606161883912293</v>
+        <v>0.9602730292969331</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.990222997136998</v>
+        <v>0.9902951327177932</v>
       </c>
     </row>
     <row r="43">
@@ -13265,19 +13265,19 @@
         <v>2113</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>686</v>
+        <v>821</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>5188</v>
+        <v>5260</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.002952184826033984</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.0009587135806646965</v>
+        <v>0.001146600510015586</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.00724757311385981</v>
+        <v>0.007348087766104447</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>22</v>
@@ -13286,19 +13286,19 @@
         <v>11995</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>7719</v>
+        <v>7199</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>18908</v>
+        <v>18405</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.0132832230269884</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.008547932533744753</v>
+        <v>0.007971943280452089</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.02093917705470322</v>
+        <v>0.02038240027525154</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>27</v>
@@ -13307,19 +13307,19 @@
         <v>14108</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>9334</v>
+        <v>9170</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>21168</v>
+        <v>21056</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.008714727516435632</v>
+        <v>0.008714727516435634</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.005765594418820302</v>
+        <v>0.005664477396789305</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01307561756601816</v>
+        <v>0.01300624298936715</v>
       </c>
     </row>
     <row r="45">
@@ -13336,19 +13336,19 @@
         <v>3834</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>1313</v>
+        <v>1308</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>8156</v>
+        <v>9141</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.005355896385832363</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.001833715567502352</v>
+        <v>0.001827608283277121</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.01139241777483281</v>
+        <v>0.01276883864633741</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>14</v>
@@ -13357,19 +13357,19 @@
         <v>8188</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>4673</v>
+        <v>4509</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>13524</v>
+        <v>13232</v>
       </c>
       <c r="N45" s="6" t="n">
-        <v>0.009067378329466429</v>
+        <v>0.009067378329466427</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.005175017253210962</v>
+        <v>0.004993682762566608</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.0149764816755902</v>
+        <v>0.01465288393398393</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>19</v>
@@ -13378,19 +13378,19 @@
         <v>12022</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>7443</v>
+        <v>7525</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>19160</v>
+        <v>18137</v>
       </c>
       <c r="U45" s="6" t="n">
-        <v>0.0074261213456888</v>
+        <v>0.007426121345688801</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.004597810700363536</v>
+        <v>0.004648160188658488</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.01183538283140471</v>
+        <v>0.01120322485115131</v>
       </c>
     </row>
     <row r="46">
@@ -13407,19 +13407,19 @@
         <v>13341</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>8249</v>
+        <v>8284</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>20718</v>
+        <v>20839</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.01863517177070092</v>
+        <v>0.01863517177070093</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01152324691380311</v>
+        <v>0.01157146143000975</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.02894045913476982</v>
+        <v>0.02910931479109743</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>78</v>
@@ -13428,19 +13428,19 @@
         <v>41408</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>33003</v>
+        <v>33006</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>52130</v>
+        <v>52551</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.04585596993097376</v>
+        <v>0.04585596993097375</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.03654787313596549</v>
+        <v>0.03655177534022943</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.05772943294421884</v>
+        <v>0.05819635079907467</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>98</v>
@@ -13449,19 +13449,19 @@
         <v>54749</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>44494</v>
+        <v>45112</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>66492</v>
+        <v>66620</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.03381864204873043</v>
+        <v>0.03381864204873044</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.02748414691771065</v>
+        <v>0.02786573546363482</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.04107236917008698</v>
+        <v>0.04115147136424552</v>
       </c>
     </row>
     <row r="47">
@@ -13478,19 +13478,19 @@
         <v>696602</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>687534</v>
+        <v>688406</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>702875</v>
+        <v>703003</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.9730567470174328</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.9603906164467436</v>
+        <v>0.9616080975651708</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.9818191399979208</v>
+        <v>0.9819991493252164</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1592</v>
@@ -13499,19 +13499,19 @@
         <v>841408</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>828453</v>
+        <v>828870</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>851823</v>
+        <v>852695</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.9317934287125714</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.9174468410326845</v>
+        <v>0.9179092873211283</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.9433280317767794</v>
+        <v>0.9442929806974099</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>2588</v>
@@ -13520,19 +13520,19 @@
         <v>1538009</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1522726</v>
+        <v>1523478</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1550773</v>
+        <v>1549437</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.9500405090891452</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.9405999576597505</v>
+        <v>0.941064326054369</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.9579248408502923</v>
+        <v>0.9570997723735772</v>
       </c>
     </row>
     <row r="48">
